--- a/I_ITALIANS/Categories_produits_italians.xlsx
+++ b/I_ITALIANS/Categories_produits_italians.xlsx
@@ -13435,7 +13435,7 @@
   <dimension ref="A2:L1474"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -64491,7 +64491,6 @@
       <c r="G1474" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L1278"/>
   <conditionalFormatting sqref="C1141:C1202 C1204:C1278">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
